--- a/output/StructureDefinition-insuranceplan-reference.xlsx
+++ b/output/StructureDefinition-insuranceplan-reference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/insuranceplan-reference</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/insuranceplan-reference</t>
   </si>
   <si>
     <t>Version</t>
@@ -357,7 +357,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-InsurancePlan)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-InsurancePlan)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-insuranceplan-reference.xlsx
+++ b/output/StructureDefinition-insuranceplan-reference.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir Insurance Plan Reference</t>
+    <t>NatlDirEndpointQry Insurance Plan Reference</t>
   </si>
   <si>
     <t>Status</t>
@@ -357,7 +357,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-InsurancePlan)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-InsurancePlan)
 </t>
   </si>
   <si>
